--- a/biology/Microbiologie/Bacillus_mycoides/Bacillus_mycoides.xlsx
+++ b/biology/Microbiologie/Bacillus_mycoides/Bacillus_mycoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bacillus mycoides est une espèce de bactéries du genre Bacillus et de la famille des Bacillaceae.
-Cette bactérie, commune naturellement dans le sol, a la propriété d'induire chez de nombreuses plantes cultivées une résistance systémique contre divers agents phytopathogènes (bactérie, champignons, oomycètes, virus). L'isolat J (BmJ) est actif seul ou en combinaison avec des fongicides ou insecticides chimiques et permet d'obtenir une résistance durant de 14 à 21 jours[2].
+Cette bactérie, commune naturellement dans le sol, a la propriété d'induire chez de nombreuses plantes cultivées une résistance systémique contre divers agents phytopathogènes (bactérie, champignons, oomycètes, virus). L'isolat J (BmJ) est actif seul ou en combinaison avec des fongicides ou insecticides chimiques et permet d'obtenir une résistance durant de 14 à 21 jours.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 décembre 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 décembre 2019) :
 non-classé Bacillus mycoides AH1143
 non-classé Bacillus mycoides DSM 2048
 non-classé Bacillus mycoides FSL H7-687
@@ -550,7 +564,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C. Flügge, Royal College of Physicians of Edinburgh., völlig umgearb. aufl Royal College of Physicians of Edinburgh. Edition: 3., Die Mikroorganismen. Mit besonderer berücksichtigung der ätiologie der infektionskrankheiten,  (publication), Inconnu, Leipzig, 1896, [lire en ligne]</t>
         </is>
